--- a/arquivos/Extrato_De_Horas_Implementação.xlsx
+++ b/arquivos/Extrato_De_Horas_Implementação.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21718"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\william.mauro\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\william.mauro\Documents\GitHub\MercadoDonaJoana\arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="215" documentId="11_673F1647E16063CA484A0853A95F44E4CB577109" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{4A3C4C28-277E-40AF-A6D3-164B455E5900}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="159">
   <si>
     <t>Nome</t>
   </si>
@@ -120,12 +119,6 @@
     <t>Agostinho / William</t>
   </si>
   <si>
-    <t>Diagrama de caso de uso</t>
-  </si>
-  <si>
-    <t>Fazer diagrama de caso de uso baseado nas funções do sistema</t>
-  </si>
-  <si>
     <t>Fazer estrutura model</t>
   </si>
   <si>
@@ -214,16 +207,316 @@
   </si>
   <si>
     <t>Valor Restante (Negociado)</t>
+  </si>
+  <si>
+    <t>Fabricar História de Venda</t>
+  </si>
+  <si>
+    <t>CODIGO</t>
+  </si>
+  <si>
+    <t>RF-1</t>
+  </si>
+  <si>
+    <t>RF-2</t>
+  </si>
+  <si>
+    <t>RF-2.1</t>
+  </si>
+  <si>
+    <t>Fabricar História de Compra</t>
+  </si>
+  <si>
+    <t>Fabricar História de Venda com produtos , funcionarios e Cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabricar História de compra com Fornecedores produtos e entrada </t>
+  </si>
+  <si>
+    <t>RF-2.2</t>
+  </si>
+  <si>
+    <t>RF-3</t>
+  </si>
+  <si>
+    <t>RF-2.3</t>
+  </si>
+  <si>
+    <t>Fabricar História de Produto</t>
+  </si>
+  <si>
+    <t>Fabricar História de Gerenciar Produtos (Inserir,Editar,Listar e Excluir)</t>
+  </si>
+  <si>
+    <t>RF-2.4</t>
+  </si>
+  <si>
+    <t>Fabricar História de Receita</t>
+  </si>
+  <si>
+    <t>Fabricar História de Gerenciar Receitas (Inserir,Editar,Listar e Excluir)</t>
+  </si>
+  <si>
+    <t>RF-2.5</t>
+  </si>
+  <si>
+    <t>Fabricar História de Despesa</t>
+  </si>
+  <si>
+    <t>Fabricar História de Gerenciar Despesas (Inserir,Editar,Listar e Excluir)</t>
+  </si>
+  <si>
+    <t>RF-2.6</t>
+  </si>
+  <si>
+    <t>Fabricar História de Cliente</t>
+  </si>
+  <si>
+    <t>Fabricar História de Gerenciar Clientes (Inserir,Editar,Listar e Excluir)</t>
+  </si>
+  <si>
+    <t>RF-2.7</t>
+  </si>
+  <si>
+    <t>Fabricar História de Gerenciar Fornecedores(Inserir,Editar,Listar e Excluir)</t>
+  </si>
+  <si>
+    <t>Fabricar História de Fornecedor</t>
+  </si>
+  <si>
+    <t>RF-2.8</t>
+  </si>
+  <si>
+    <t>Fabricar História de Funcionário</t>
+  </si>
+  <si>
+    <t>Fabricar História de Gerenciar Funcionário (Inserir,Editar,Listar e Excluir)</t>
+  </si>
+  <si>
+    <t>RF-2.9</t>
+  </si>
+  <si>
+    <t>Fabrica História de Categoria</t>
+  </si>
+  <si>
+    <t>Fabricar História de Gerenciar Categoria(Inserir,Editar,Listar e Excluir)</t>
+  </si>
+  <si>
+    <t>RF-2.10</t>
+  </si>
+  <si>
+    <t>Fabricar História de Tipo de Usuário</t>
+  </si>
+  <si>
+    <t>Tela de Gerenciar Produtos</t>
+  </si>
+  <si>
+    <t>Tela de Gerenciar Categoria</t>
+  </si>
+  <si>
+    <t>Tela de Gerenciar Receita</t>
+  </si>
+  <si>
+    <t>Tela de Gerenciar Despesa</t>
+  </si>
+  <si>
+    <t>Tela de Gerenciar Cliente</t>
+  </si>
+  <si>
+    <t>Tela de Gerenciar Fornecedor</t>
+  </si>
+  <si>
+    <t>Tela de Gerenciar Funcionário</t>
+  </si>
+  <si>
+    <t>Fabricar História de Gerenciar Tipo de Usuário (Inserir,Editar,Listar e Excluir)</t>
+  </si>
+  <si>
+    <t>Tela de Gerenciar Tipo de Usuário</t>
+  </si>
+  <si>
+    <t>RF-4</t>
+  </si>
+  <si>
+    <t>RF-5</t>
+  </si>
+  <si>
+    <t>RF-6</t>
+  </si>
+  <si>
+    <t>RF-6.1</t>
+  </si>
+  <si>
+    <t>RF-6.2</t>
+  </si>
+  <si>
+    <t>RF-6.3</t>
+  </si>
+  <si>
+    <t>RF-6.4</t>
+  </si>
+  <si>
+    <t>RF-6.5</t>
+  </si>
+  <si>
+    <t>RF-6.6</t>
+  </si>
+  <si>
+    <t>RF-6.7</t>
+  </si>
+  <si>
+    <t>RF-6.8</t>
+  </si>
+  <si>
+    <t>RF-6.9</t>
+  </si>
+  <si>
+    <t>RF-6.10</t>
+  </si>
+  <si>
+    <t>Tela de Efetuar Venda</t>
+  </si>
+  <si>
+    <t>Tela de Efetuar Compra</t>
+  </si>
+  <si>
+    <t>Tela de venda contendo todos os atributos de venda</t>
+  </si>
+  <si>
+    <t>Tela de Compra contendo todos os atributos de Compra</t>
+  </si>
+  <si>
+    <t>Tela de gerenciamento de produtos contendo todos os atributos de produtos</t>
+  </si>
+  <si>
+    <t>Tela de gerenciamento de categorias contendo todos os atributos de categorias</t>
+  </si>
+  <si>
+    <t>Tela de gerenciamento de receita contendo todos os atributos de receita</t>
+  </si>
+  <si>
+    <t>Tela de gerenciamento de despesa contendo todos os atributos de despesa</t>
+  </si>
+  <si>
+    <t>Tela de gerenciamento de cliente contendo todos os atributos de cliente</t>
+  </si>
+  <si>
+    <t>Tela de gerenciamento de fornecedor contendo todos os atributos de fornecedor</t>
+  </si>
+  <si>
+    <t>Tela de gerenciamento de funcionário contendo todos os atributos de funcionário</t>
+  </si>
+  <si>
+    <t>Tela de gerenciamento de tipo de usuário contendo todos os atributos de tipo de usuário</t>
+  </si>
+  <si>
+    <t>RF-7</t>
+  </si>
+  <si>
+    <t>RF-8</t>
+  </si>
+  <si>
+    <t>RF-9</t>
+  </si>
+  <si>
+    <t>RF-10</t>
+  </si>
+  <si>
+    <t>RF-11</t>
+  </si>
+  <si>
+    <t>RF-12</t>
+  </si>
+  <si>
+    <t>RF-13</t>
+  </si>
+  <si>
+    <t>RF-14</t>
+  </si>
+  <si>
+    <t>RF-15</t>
+  </si>
+  <si>
+    <t>RF-16</t>
+  </si>
+  <si>
+    <t>RF-17</t>
+  </si>
+  <si>
+    <t>RF-18</t>
+  </si>
+  <si>
+    <t>RF-19</t>
+  </si>
+  <si>
+    <t>RF-20</t>
+  </si>
+  <si>
+    <t>RF-21</t>
+  </si>
+  <si>
+    <t>RF-10.1</t>
+  </si>
+  <si>
+    <t>RF-10.2</t>
+  </si>
+  <si>
+    <t>RF-10.3</t>
+  </si>
+  <si>
+    <t>Criar diagrama de classes de conexão com o banco</t>
+  </si>
+  <si>
+    <t>Criar diagramas dao de todas as entidades pré-determinadas  e interfaces DAO</t>
+  </si>
+  <si>
+    <t>Criar diagrama de modelos de entidades</t>
+  </si>
+  <si>
+    <t>RF-10.4</t>
+  </si>
+  <si>
+    <t>Criar diagrama de Controle das classes</t>
+  </si>
+  <si>
+    <t>RF-10.5</t>
+  </si>
+  <si>
+    <t>Diagrama de Classe - Conexão</t>
+  </si>
+  <si>
+    <t>Diagrama de Classe - DAO</t>
+  </si>
+  <si>
+    <t>Diagrama de Classe - Model</t>
+  </si>
+  <si>
+    <t>Diagrama de Classe - Control</t>
+  </si>
+  <si>
+    <t>Diagrama de Classe - Telas</t>
+  </si>
+  <si>
+    <t>Criar diagrama de Telas do Usuário</t>
+  </si>
+  <si>
+    <t>RF-10.6</t>
+  </si>
+  <si>
+    <t>Diagrama de Uteis</t>
+  </si>
+  <si>
+    <t>Criar diagrama de classes uteis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -607,554 +900,990 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46" style="3" customWidth="1"/>
-    <col min="2" max="2" width="136" style="7" customWidth="1"/>
-    <col min="3" max="4" width="16.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="35.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46" style="3" customWidth="1"/>
+    <col min="3" max="3" width="136" style="7" customWidth="1"/>
+    <col min="4" max="5" width="16.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="35.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
         <v>4</v>
       </c>
-      <c r="D2" s="4">
-        <v>60</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="4">
+        <v>60</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="9">
-        <f>C2*D2</f>
+      <c r="G2" s="9">
+        <f>D2*E2</f>
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="42">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4">
+      <c r="D3" s="2">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2">
+        <v>60</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4">
-        <v>60</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="8">
+        <f t="shared" ref="G3:G48" si="0">D3*E3</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2">
+        <v>60</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="9">
-        <f t="shared" ref="F3:F23" si="0">C3*D3</f>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="21">
-      <c r="A4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4">
-        <v>60</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="G14" s="8">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="21">
-      <c r="A5" s="4" t="s">
+    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4">
+      <c r="D15" s="2">
         <v>2</v>
       </c>
-      <c r="D5" s="4">
-        <v>60</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="E15" s="2">
+        <v>60</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="9">
+      <c r="G15" s="8">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="21">
-      <c r="A6" s="4" t="s">
+    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="4">
+      <c r="D16" s="2">
         <v>8</v>
       </c>
-      <c r="D6" s="4">
-        <v>60</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="E16" s="2">
+        <v>60</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="9">
+      <c r="G16" s="8">
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="21">
-      <c r="A7" s="4" t="s">
+    <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4">
+      <c r="D17" s="2">
         <v>8</v>
       </c>
-      <c r="D7" s="4">
-        <v>60</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="E17" s="2">
+        <v>60</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="9">
+      <c r="G17" s="8">
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="21">
-      <c r="A8" s="4" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D28" s="2">
         <v>4</v>
       </c>
-      <c r="D8" s="4">
-        <v>60</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="E28" s="2">
+        <v>60</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="9">
+      <c r="G28" s="8">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="21">
-      <c r="A9" s="4" t="s">
+    <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D29" s="2">
         <v>4</v>
       </c>
-      <c r="D9" s="4">
-        <v>60</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="E29" s="2">
+        <v>60</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="9">
+      <c r="G29" s="8">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="42">
-      <c r="A10" s="4" t="s">
+    <row r="30" spans="1:7" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D30" s="2">
         <v>2</v>
       </c>
-      <c r="D10" s="4">
-        <v>60</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="E30" s="2">
+        <v>60</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="9">
+      <c r="G30" s="8">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="21">
-      <c r="A11" s="4" t="s">
+    <row r="31" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D31" s="2">
         <v>16</v>
       </c>
-      <c r="D11" s="4">
-        <v>60</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="E31" s="2">
+        <v>60</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="9">
+      <c r="G31" s="8">
         <f t="shared" si="0"/>
         <v>960</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="21">
-      <c r="A12" s="4" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="4">
+      <c r="D38" s="2">
+        <v>2</v>
+      </c>
+      <c r="E38" s="2">
+        <v>60</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="8">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="2">
+        <v>8</v>
+      </c>
+      <c r="E39" s="2">
+        <v>60</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="8">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="2">
         <v>4</v>
       </c>
-      <c r="D12" s="4">
-        <v>60</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="9">
+      <c r="E40" s="2">
+        <v>60</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="8">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="21">
-      <c r="A13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="4">
+    <row r="41" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="2">
+        <v>12</v>
+      </c>
+      <c r="E41" s="2">
+        <v>60</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="8">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="2">
+        <v>4</v>
+      </c>
+      <c r="E42" s="2">
+        <v>60</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="8">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="2">
+        <v>4</v>
+      </c>
+      <c r="E43" s="2">
+        <v>60</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="8">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="2">
+        <v>4</v>
+      </c>
+      <c r="E44" s="2">
+        <v>60</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="8">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="2">
         <v>2</v>
       </c>
-      <c r="D13" s="4">
-        <v>60</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="9">
+      <c r="E45" s="2">
+        <v>60</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="8">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="21">
-      <c r="A14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="4">
+    <row r="46" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="2">
+        <v>4</v>
+      </c>
+      <c r="E46" s="2">
+        <v>60</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" s="8">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="2">
         <v>8</v>
       </c>
-      <c r="D14" s="4">
-        <v>60</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="9">
+      <c r="E47" s="2">
+        <v>60</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" s="8">
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="21">
-      <c r="A15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="4">
+    <row r="48" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="2">
         <v>4</v>
       </c>
-      <c r="D15" s="4">
-        <v>60</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="9">
+      <c r="E48" s="2">
+        <v>60</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" s="8">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="21">
-      <c r="A16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="4">
-        <v>12</v>
-      </c>
-      <c r="D16" s="4">
-        <v>60</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="9">
-        <f t="shared" si="0"/>
-        <v>720</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="21">
-      <c r="A17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="4">
-        <v>4</v>
-      </c>
-      <c r="D17" s="4">
-        <v>60</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="9">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="21">
-      <c r="A18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="4">
-        <v>4</v>
-      </c>
-      <c r="D18" s="4">
-        <v>60</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="9">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="21">
-      <c r="A19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="4">
-        <v>4</v>
-      </c>
-      <c r="D19" s="4">
-        <v>60</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="9">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="21">
-      <c r="A20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="4">
-        <v>2</v>
-      </c>
-      <c r="D20" s="4">
-        <v>60</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="9">
-        <f t="shared" si="0"/>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="4"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="4">
+        <f>SUM(D2:D48)</f>
         <v>120</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="21">
-      <c r="A21" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="4">
-        <v>4</v>
-      </c>
-      <c r="D21" s="4">
-        <v>60</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="9">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="21">
-      <c r="A22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="4">
-        <v>8</v>
-      </c>
-      <c r="D22" s="4">
-        <v>60</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="9">
-        <f t="shared" si="0"/>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="21">
-      <c r="A23" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="4">
-        <v>4</v>
-      </c>
-      <c r="D23" s="4">
-        <v>60</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="9">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="21">
-      <c r="A24" s="4"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="2" t="s">
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="9">
+        <f>SUM(G2:G48)</f>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="C52" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="8" t="s">
+      <c r="F52" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="21">
-      <c r="A25" s="4"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="4">
-        <f>SUM(C2:C23)</f>
-        <v>120</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="9">
-        <f>SUM(F2:F23)</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="21"/>
-    <row r="27" spans="1:6" ht="52.5">
-      <c r="B27" s="12" t="s">
+      <c r="G52" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="21">
-      <c r="E28" s="10">
-        <f>F25*30%</f>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F53" s="10">
+        <f>G50*30%</f>
         <v>2160</v>
       </c>
-      <c r="F28" s="10">
-        <f>F25-E28</f>
+      <c r="G53" s="10">
+        <f>G50-F53</f>
         <v>5040</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/arquivos/Extrato_De_Horas_Implementação.xlsx
+++ b/arquivos/Extrato_De_Horas_Implementação.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\william.mauro\Documents\GitHub\MercadoDonaJoana\arquivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Documents\GitHub\MercadoDonaJoana\arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81D8309-6BD4-4391-A230-936F35289066}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20760" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="181">
   <si>
     <t>Nome</t>
   </si>
@@ -143,9 +143,6 @@
     <t>Montar as telas baseado na aprovação do cliente do protótipo</t>
   </si>
   <si>
-    <t>Implementar Cruds no Control</t>
-  </si>
-  <si>
     <t>Implementar a persistencia dos objetos no control enviando para o banco</t>
   </si>
   <si>
@@ -507,12 +504,81 @@
   </si>
   <si>
     <t>Criar diagrama de classes uteis</t>
+  </si>
+  <si>
+    <t>Ajustar Tela de Efetuar Venda</t>
+  </si>
+  <si>
+    <t>Ajustar Tela de Efetuar Compra</t>
+  </si>
+  <si>
+    <t>Ajustar Tela de Gerenciar Produtos</t>
+  </si>
+  <si>
+    <t>Ajustar Tela de Gerenciar Categoria</t>
+  </si>
+  <si>
+    <t>Ajustar Tela de Gerenciar Receita</t>
+  </si>
+  <si>
+    <t>Ajustar Tela de Gerenciar Despesa</t>
+  </si>
+  <si>
+    <t>Ajustar Tela de Gerenciar Cliente</t>
+  </si>
+  <si>
+    <t>Ajustar Tela de Gerenciar Fornecedor</t>
+  </si>
+  <si>
+    <t>Ajustar Tela de Gerenciar Funcionário</t>
+  </si>
+  <si>
+    <t>Ajustar Tela de Gerenciar Tipo de Usuário</t>
+  </si>
+  <si>
+    <t>RF-13.1</t>
+  </si>
+  <si>
+    <t>RF-13.2</t>
+  </si>
+  <si>
+    <t>RF-13.3</t>
+  </si>
+  <si>
+    <t>RF-13.4</t>
+  </si>
+  <si>
+    <t>RF-13.5</t>
+  </si>
+  <si>
+    <t>RF-13.6</t>
+  </si>
+  <si>
+    <t>RF-13.7</t>
+  </si>
+  <si>
+    <t>RF-13.8</t>
+  </si>
+  <si>
+    <t>RF-13.9</t>
+  </si>
+  <si>
+    <t>Ajustar prototipo de tela baseado nos requisitos e ajustes pedidos do cliente</t>
+  </si>
+  <si>
+    <t>RF-22</t>
+  </si>
+  <si>
+    <t>Manual de Uso</t>
+  </si>
+  <si>
+    <t>Fabricar manual de uso para  o sistema</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0.00"/>
   </numFmts>
@@ -900,17 +966,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46" style="3" customWidth="1"/>
+    <col min="2" max="2" width="52.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="136" style="7" customWidth="1"/>
     <col min="4" max="5" width="16.5703125" style="3" customWidth="1"/>
     <col min="6" max="6" width="29.42578125" style="3" customWidth="1"/>
@@ -920,7 +986,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -943,7 +1009,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
@@ -967,7 +1033,7 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -976,7 +1042,8 @@
         <v>10</v>
       </c>
       <c r="D3" s="2">
-        <v>12</v>
+        <f>SUM(D4:D13)</f>
+        <v>20</v>
       </c>
       <c r="E3" s="2">
         <v>60</v>
@@ -985,163 +1052,183 @@
         <v>8</v>
       </c>
       <c r="G3" s="8">
-        <f t="shared" ref="G3:G48" si="0">D3*E3</f>
-        <v>720</v>
+        <f t="shared" ref="G3:G58" si="0">D3*E3</f>
+        <v>1200</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4">
+        <v>2</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="4"/>
+        <v>81</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="C13" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>98</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>11</v>
@@ -1165,7 +1252,7 @@
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>13</v>
@@ -1189,7 +1276,7 @@
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>15</v>
@@ -1213,7 +1300,7 @@
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>17</v>
@@ -1222,7 +1309,8 @@
         <v>18</v>
       </c>
       <c r="D17" s="2">
-        <v>8</v>
+        <f>SUM(D18:D27)</f>
+        <v>18</v>
       </c>
       <c r="E17" s="2">
         <v>60</v>
@@ -1232,162 +1320,182 @@
       </c>
       <c r="G17" s="8">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" s="4"/>
+        <v>116</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D20" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D21" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="D21" s="4">
+        <v>2</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22" s="4"/>
+        <v>119</v>
+      </c>
+      <c r="D22" s="4">
+        <v>2</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D23" s="4"/>
+        <v>120</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2</v>
+      </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D24" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="D24" s="4">
+        <v>2</v>
+      </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" s="4"/>
+        <v>122</v>
+      </c>
+      <c r="D25" s="4">
+        <v>2</v>
+      </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="D26" s="4">
+        <v>2</v>
+      </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D27" s="4"/>
+        <v>124</v>
+      </c>
+      <c r="D27" s="4">
+        <v>2</v>
+      </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>20</v>
@@ -1411,7 +1519,7 @@
     </row>
     <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>22</v>
@@ -1435,7 +1543,7 @@
     </row>
     <row r="30" spans="1:7" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>24</v>
@@ -1459,7 +1567,7 @@
     </row>
     <row r="31" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>26</v>
@@ -1468,7 +1576,8 @@
         <v>27</v>
       </c>
       <c r="D31" s="2">
-        <v>16</v>
+        <f>SUM(D32:D37)</f>
+        <v>15</v>
       </c>
       <c r="E31" s="2">
         <v>60</v>
@@ -1478,102 +1587,114 @@
       </c>
       <c r="G31" s="8">
         <f t="shared" si="0"/>
-        <v>960</v>
+        <v>900</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D32" s="4"/>
+        <v>143</v>
+      </c>
+      <c r="D32" s="4">
+        <v>2</v>
+      </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D33" s="4"/>
+        <v>144</v>
+      </c>
+      <c r="D33" s="4">
+        <v>3</v>
+      </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D34" s="4"/>
+        <v>145</v>
+      </c>
+      <c r="D34" s="4">
+        <v>3</v>
+      </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D35" s="4"/>
+      <c r="D35" s="4">
+        <v>3</v>
+      </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D36" s="4"/>
+      <c r="D36" s="4">
+        <v>3</v>
+      </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="9"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="C37" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D37" s="4"/>
+      <c r="D37" s="4">
+        <v>1</v>
+      </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>29</v>
@@ -1597,7 +1718,7 @@
     </row>
     <row r="39" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>32</v>
@@ -1621,7 +1742,7 @@
     </row>
     <row r="40" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>35</v>
@@ -1630,7 +1751,8 @@
         <v>36</v>
       </c>
       <c r="D40" s="2">
-        <v>4</v>
+        <f>SUM(D41:D49)</f>
+        <v>9</v>
       </c>
       <c r="E40" s="2">
         <v>60</v>
@@ -1640,246 +1762,416 @@
       </c>
       <c r="G40" s="8">
         <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B41" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="9"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="9"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="9"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="9"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="9"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="9"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="9"/>
+    </row>
+    <row r="50" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="2">
+      <c r="D50" s="2">
         <v>12</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E50" s="2">
         <v>60</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G50" s="8">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B42" s="2" t="s">
+    <row r="51" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" s="2">
+      <c r="D51" s="2">
         <v>4</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E51" s="2">
         <v>60</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G51" s="8">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B43" s="2" t="s">
+    <row r="52" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="2">
+      <c r="D52" s="2">
         <v>4</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E52" s="2">
         <v>60</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G52" s="8">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B44" s="2" t="s">
+    <row r="53" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" s="2">
+      <c r="D53" s="2">
         <v>4</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E53" s="2">
         <v>60</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G53" s="8">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B45" s="2" t="s">
+    <row r="54" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" s="2">
-        <v>2</v>
-      </c>
-      <c r="E45" s="2">
+      <c r="D54" s="2">
+        <v>2</v>
+      </c>
+      <c r="E54" s="2">
         <v>60</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G54" s="8">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B46" s="2" t="s">
+    <row r="55" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="D55" s="2">
+        <v>4</v>
+      </c>
+      <c r="E55" s="2">
+        <v>60</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="2">
-        <v>4</v>
-      </c>
-      <c r="E46" s="2">
-        <v>60</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G46" s="8">
+      <c r="G55" s="8">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B47" s="2" t="s">
+    <row r="56" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="2">
+      <c r="D56" s="2">
         <v>8</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E56" s="2">
         <v>60</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G56" s="8">
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B48" s="2" t="s">
+    <row r="57" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D57" s="2">
+        <v>8</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="8"/>
+    </row>
+    <row r="58" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" s="2">
+      <c r="D58" s="2">
         <v>4</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E58" s="2">
         <v>60</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F58" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G58" s="8">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="4"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="2" t="s">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="4"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="8" t="s">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="4"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="4">
+        <f>SUM(D2:D58)</f>
+        <v>212</v>
+      </c>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="9">
+        <f>SUM(G2:G58)</f>
+        <v>8520</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="C62" s="12" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="4"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="4">
-        <f>SUM(D2:D48)</f>
-        <v>120</v>
-      </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="9">
-        <f>SUM(G2:G48)</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="C52" s="12" t="s">
+      <c r="F62" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="G62" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G52" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F53" s="10">
-        <f>G50*30%</f>
-        <v>2160</v>
-      </c>
-      <c r="G53" s="10">
-        <f>G50-F53</f>
-        <v>5040</v>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F63" s="10">
+        <f>G60*30%</f>
+        <v>2556</v>
+      </c>
+      <c r="G63" s="10">
+        <f>G60-F63</f>
+        <v>5964</v>
       </c>
     </row>
   </sheetData>

--- a/arquivos/Extrato_De_Horas_Implementação.xlsx
+++ b/arquivos/Extrato_De_Horas_Implementação.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Documents\GitHub\MercadoDonaJoana\arquivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agostinho.junior\Documents\GitHub\Mercado\arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81D8309-6BD4-4391-A230-936F35289066}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20760" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20760" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="182">
   <si>
     <t>Nome</t>
   </si>
@@ -143,9 +142,6 @@
     <t>Montar as telas baseado na aprovação do cliente do protótipo</t>
   </si>
   <si>
-    <t>Implementar a persistencia dos objetos no control enviando para o banco</t>
-  </si>
-  <si>
     <t>Validar Regra de negócio</t>
   </si>
   <si>
@@ -215,12 +211,6 @@
     <t>RF-1</t>
   </si>
   <si>
-    <t>RF-2</t>
-  </si>
-  <si>
-    <t>RF-2.1</t>
-  </si>
-  <si>
     <t>Fabricar História de Compra</t>
   </si>
   <si>
@@ -230,78 +220,48 @@
     <t xml:space="preserve">Fabricar História de compra com Fornecedores produtos e entrada </t>
   </si>
   <si>
-    <t>RF-2.2</t>
-  </si>
-  <si>
-    <t>RF-3</t>
-  </si>
-  <si>
-    <t>RF-2.3</t>
-  </si>
-  <si>
     <t>Fabricar História de Produto</t>
   </si>
   <si>
     <t>Fabricar História de Gerenciar Produtos (Inserir,Editar,Listar e Excluir)</t>
   </si>
   <si>
-    <t>RF-2.4</t>
-  </si>
-  <si>
     <t>Fabricar História de Receita</t>
   </si>
   <si>
     <t>Fabricar História de Gerenciar Receitas (Inserir,Editar,Listar e Excluir)</t>
   </si>
   <si>
-    <t>RF-2.5</t>
-  </si>
-  <si>
     <t>Fabricar História de Despesa</t>
   </si>
   <si>
     <t>Fabricar História de Gerenciar Despesas (Inserir,Editar,Listar e Excluir)</t>
   </si>
   <si>
-    <t>RF-2.6</t>
-  </si>
-  <si>
     <t>Fabricar História de Cliente</t>
   </si>
   <si>
     <t>Fabricar História de Gerenciar Clientes (Inserir,Editar,Listar e Excluir)</t>
   </si>
   <si>
-    <t>RF-2.7</t>
-  </si>
-  <si>
     <t>Fabricar História de Gerenciar Fornecedores(Inserir,Editar,Listar e Excluir)</t>
   </si>
   <si>
     <t>Fabricar História de Fornecedor</t>
   </si>
   <si>
-    <t>RF-2.8</t>
-  </si>
-  <si>
     <t>Fabricar História de Funcionário</t>
   </si>
   <si>
     <t>Fabricar História de Gerenciar Funcionário (Inserir,Editar,Listar e Excluir)</t>
   </si>
   <si>
-    <t>RF-2.9</t>
-  </si>
-  <si>
     <t>Fabrica História de Categoria</t>
   </si>
   <si>
     <t>Fabricar História de Gerenciar Categoria(Inserir,Editar,Listar e Excluir)</t>
   </si>
   <si>
-    <t>RF-2.10</t>
-  </si>
-  <si>
     <t>Fabricar História de Tipo de Usuário</t>
   </si>
   <si>
@@ -332,9 +292,6 @@
     <t>Tela de Gerenciar Tipo de Usuário</t>
   </si>
   <si>
-    <t>RF-4</t>
-  </si>
-  <si>
     <t>RF-5</t>
   </si>
   <si>
@@ -407,15 +364,9 @@
     <t>Tela de gerenciamento de tipo de usuário contendo todos os atributos de tipo de usuário</t>
   </si>
   <si>
-    <t>RF-7</t>
-  </si>
-  <si>
     <t>RF-8</t>
   </si>
   <si>
-    <t>RF-9</t>
-  </si>
-  <si>
     <t>RF-10</t>
   </si>
   <si>
@@ -431,27 +382,6 @@
     <t>RF-14</t>
   </si>
   <si>
-    <t>RF-15</t>
-  </si>
-  <si>
-    <t>RF-16</t>
-  </si>
-  <si>
-    <t>RF-17</t>
-  </si>
-  <si>
-    <t>RF-18</t>
-  </si>
-  <si>
-    <t>RF-19</t>
-  </si>
-  <si>
-    <t>RF-20</t>
-  </si>
-  <si>
-    <t>RF-21</t>
-  </si>
-  <si>
     <t>RF-10.1</t>
   </si>
   <si>
@@ -573,12 +503,84 @@
   </si>
   <si>
     <t>Fabricar manual de uso para  o sistema</t>
+  </si>
+  <si>
+    <t>Prioridade</t>
+  </si>
+  <si>
+    <t>RNF-2</t>
+  </si>
+  <si>
+    <t>RNF-2.1</t>
+  </si>
+  <si>
+    <t>RNF-2.2</t>
+  </si>
+  <si>
+    <t>RNF-2.3</t>
+  </si>
+  <si>
+    <t>RNF-2.4</t>
+  </si>
+  <si>
+    <t>RNF-2.5</t>
+  </si>
+  <si>
+    <t>RNF-2.6</t>
+  </si>
+  <si>
+    <t>RNF-2.7</t>
+  </si>
+  <si>
+    <t>RNF-2.8</t>
+  </si>
+  <si>
+    <t>RNF-2.9</t>
+  </si>
+  <si>
+    <t>RNF-2.10</t>
+  </si>
+  <si>
+    <t>RNF-3</t>
+  </si>
+  <si>
+    <t>RNF-4</t>
+  </si>
+  <si>
+    <t>RNF-7</t>
+  </si>
+  <si>
+    <t>RNF-9</t>
+  </si>
+  <si>
+    <t>RNF-20</t>
+  </si>
+  <si>
+    <t>RNF-21</t>
+  </si>
+  <si>
+    <t>Dias uteis</t>
+  </si>
+  <si>
+    <t>RNF-15</t>
+  </si>
+  <si>
+    <t>RNF-16</t>
+  </si>
+  <si>
+    <t>RNF-17</t>
+  </si>
+  <si>
+    <t>RNF-18</t>
+  </si>
+  <si>
+    <t>RNF-19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0.00"/>
   </numFmts>
@@ -622,7 +624,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -645,11 +647,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -672,12 +726,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -686,6 +734,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -966,27 +1041,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="C44" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
     <col min="2" max="2" width="52.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="136" style="7" customWidth="1"/>
     <col min="4" max="5" width="16.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="35.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="6" max="6" width="16.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="35.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -997,19 +1073,22 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
@@ -1020,20 +1099,21 @@
       <c r="D2" s="4">
         <v>4</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="13">
         <v>60</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="9">
+      <c r="H2" s="15">
         <f>D2*E2</f>
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -1045,190 +1125,223 @@
         <f>SUM(D4:D13)</f>
         <v>20</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="12">
         <v>60</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="18">
+        <v>0</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="8">
-        <f t="shared" ref="G3:G58" si="0">D3*E3</f>
+      <c r="H3" s="14">
+        <f>D3*E3</f>
         <v>1200</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="18">
+        <v>0</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="18">
+        <v>0</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="4">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="18">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="18">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="18">
+        <v>0</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="18">
+        <v>0</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="4">
-        <v>2</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="D10" s="4">
+        <v>2</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="18">
+        <v>0</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="4">
-        <v>2</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="D11" s="4">
+        <v>2</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="18">
+        <v>0</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="4">
-        <v>2</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="18">
+        <v>0</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="4">
-        <v>2</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="4">
-        <v>2</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="4">
-        <v>2</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="4">
-        <v>2</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="D13" s="4">
         <v>2</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="13"/>
+      <c r="F13" s="18">
+        <v>0</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>170</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>11</v>
@@ -1239,20 +1352,23 @@
       <c r="D14" s="2">
         <v>4</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="12">
         <v>60</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="18">
+        <v>1</v>
+      </c>
+      <c r="G14" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="8">
-        <f t="shared" si="0"/>
+      <c r="H14" s="14">
+        <f>D14*E14</f>
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>13</v>
@@ -1263,20 +1379,23 @@
       <c r="D15" s="2">
         <v>2</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="12">
         <v>60</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="18">
+        <v>1</v>
+      </c>
+      <c r="G15" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="8">
-        <f t="shared" si="0"/>
+      <c r="H15" s="14">
+        <f>D15*E15</f>
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>15</v>
@@ -1287,20 +1406,23 @@
       <c r="D16" s="2">
         <v>8</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="12">
         <v>60</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="18">
+        <v>0</v>
+      </c>
+      <c r="G16" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="8">
-        <f t="shared" si="0"/>
+      <c r="H16" s="14">
+        <f>D16*E16</f>
         <v>480</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>17</v>
@@ -1312,190 +1434,223 @@
         <f>SUM(D18:D27)</f>
         <v>18</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="12">
         <v>60</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="18">
+        <v>1</v>
+      </c>
+      <c r="G17" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="8">
-        <f t="shared" si="0"/>
+      <c r="H17" s="14">
+        <f>D17*E17</f>
         <v>1080</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="18">
+        <v>1</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="D20" s="4">
+        <v>2</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="18">
+        <v>1</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="D21" s="4">
+        <v>2</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="18">
+        <v>1</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" s="4">
-        <v>2</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="D22" s="4">
+        <v>2</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="18">
+        <v>1</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D21" s="4">
-        <v>2</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="D23" s="4">
+        <v>2</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="18">
+        <v>1</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D22" s="4">
-        <v>2</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="D24" s="4">
+        <v>2</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="18">
+        <v>1</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23" s="4">
-        <v>2</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="D25" s="4">
+        <v>2</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="18">
+        <v>1</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D24" s="4">
-        <v>2</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="D26" s="4">
+        <v>2</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="18">
+        <v>1</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D25" s="4">
-        <v>2</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26" s="4">
-        <v>2</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="D27" s="4">
         <v>2</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="13"/>
+      <c r="F27" s="18">
+        <v>1</v>
+      </c>
+      <c r="G27" s="17"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>20</v>
@@ -1506,20 +1661,23 @@
       <c r="D28" s="2">
         <v>4</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="12">
         <v>60</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="18">
+        <v>3</v>
+      </c>
+      <c r="G28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="8">
-        <f t="shared" si="0"/>
+      <c r="H28" s="14">
+        <f>D28*E28</f>
         <v>240</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>22</v>
@@ -1530,20 +1688,23 @@
       <c r="D29" s="2">
         <v>4</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="12">
         <v>60</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="18">
+        <v>3</v>
+      </c>
+      <c r="G29" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="8">
-        <f t="shared" si="0"/>
+      <c r="H29" s="14">
+        <f>D29*E29</f>
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>24</v>
@@ -1554,20 +1715,23 @@
       <c r="D30" s="2">
         <v>2</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="12">
         <v>60</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="18">
+        <v>1</v>
+      </c>
+      <c r="G30" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="8">
-        <f t="shared" si="0"/>
+      <c r="H30" s="14">
+        <f>D30*E30</f>
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>26</v>
@@ -1579,122 +1743,143 @@
         <f>SUM(D32:D37)</f>
         <v>15</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="12">
         <v>60</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="18">
+        <v>0</v>
+      </c>
+      <c r="G31" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="8">
-        <f t="shared" si="0"/>
+      <c r="H31" s="14">
+        <f>D31*E31</f>
         <v>900</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="D32" s="4">
         <v>2</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E32" s="13"/>
+      <c r="F32" s="18">
+        <v>0</v>
+      </c>
+      <c r="G32" s="17"/>
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="D33" s="4">
         <v>3</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E33" s="13"/>
+      <c r="F33" s="18">
+        <v>0</v>
+      </c>
+      <c r="G33" s="17"/>
+      <c r="H33" s="15"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D34" s="4">
         <v>3</v>
       </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E34" s="13"/>
+      <c r="F34" s="18">
+        <v>0</v>
+      </c>
+      <c r="G34" s="17"/>
+      <c r="H34" s="15"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="D35" s="4">
         <v>3</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="9"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E35" s="13"/>
+      <c r="F35" s="18">
+        <v>0</v>
+      </c>
+      <c r="G35" s="17"/>
+      <c r="H35" s="15"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D36" s="4">
         <v>3</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="9"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E36" s="13"/>
+      <c r="F36" s="18">
+        <v>0</v>
+      </c>
+      <c r="G36" s="17"/>
+      <c r="H36" s="15"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
       </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="9"/>
-    </row>
-    <row r="38" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="13"/>
+      <c r="F37" s="18">
+        <v>0</v>
+      </c>
+      <c r="G37" s="17"/>
+      <c r="H37" s="15"/>
+    </row>
+    <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>29</v>
@@ -1705,20 +1890,23 @@
       <c r="D38" s="2">
         <v>2</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="12">
         <v>60</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="18">
+        <v>0</v>
+      </c>
+      <c r="G38" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="8">
-        <f t="shared" si="0"/>
+      <c r="H38" s="14">
+        <f>D38*E38</f>
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>32</v>
@@ -1729,20 +1917,23 @@
       <c r="D39" s="2">
         <v>8</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="12">
         <v>60</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="18">
+        <v>0</v>
+      </c>
+      <c r="G39" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="8">
-        <f t="shared" si="0"/>
+      <c r="H39" s="14">
+        <f>D39*E39</f>
         <v>480</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>35</v>
@@ -1754,424 +1945,492 @@
         <f>SUM(D41:D49)</f>
         <v>9</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="12">
         <v>60</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="18">
+        <v>0</v>
+      </c>
+      <c r="G40" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="8">
-        <f t="shared" si="0"/>
+      <c r="H40" s="14">
+        <f>D40*E40</f>
         <v>540</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="C41" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="13"/>
+      <c r="F41" s="18">
+        <v>2</v>
+      </c>
+      <c r="G41" s="17"/>
+      <c r="H41" s="15"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1</v>
+      </c>
+      <c r="E42" s="13"/>
+      <c r="F42" s="18">
+        <v>2</v>
+      </c>
+      <c r="G42" s="17"/>
+      <c r="H42" s="15"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+      <c r="E43" s="13"/>
+      <c r="F43" s="18">
+        <v>2</v>
+      </c>
+      <c r="G43" s="17"/>
+      <c r="H43" s="15"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+      <c r="E44" s="13"/>
+      <c r="F44" s="18">
+        <v>2</v>
+      </c>
+      <c r="G44" s="17"/>
+      <c r="H44" s="15"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1</v>
+      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="18">
+        <v>2</v>
+      </c>
+      <c r="G45" s="17"/>
+      <c r="H45" s="15"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1</v>
+      </c>
+      <c r="E46" s="13"/>
+      <c r="F46" s="18">
+        <v>2</v>
+      </c>
+      <c r="G46" s="17"/>
+      <c r="H46" s="15"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1</v>
+      </c>
+      <c r="E47" s="13"/>
+      <c r="F47" s="18">
+        <v>2</v>
+      </c>
+      <c r="G47" s="17"/>
+      <c r="H47" s="15"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1</v>
+      </c>
+      <c r="E48" s="13"/>
+      <c r="F48" s="18">
+        <v>2</v>
+      </c>
+      <c r="G48" s="17"/>
+      <c r="H48" s="15"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1</v>
+      </c>
+      <c r="E49" s="13"/>
+      <c r="F49" s="18">
+        <v>2</v>
+      </c>
+      <c r="G49" s="17"/>
+      <c r="H49" s="15"/>
+    </row>
+    <row r="50" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D50" s="4">
+        <v>1</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="11">
+        <v>2</v>
+      </c>
+      <c r="G50" s="16"/>
+      <c r="H50" s="14"/>
+    </row>
+    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D41" s="4">
-        <v>1</v>
-      </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D42" s="4">
-        <v>1</v>
-      </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D43" s="4">
-        <v>1</v>
-      </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="9"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D44" s="4">
-        <v>1</v>
-      </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="9"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D45" s="4">
-        <v>1</v>
-      </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="9"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D46" s="4">
-        <v>1</v>
-      </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="9"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D47" s="4">
-        <v>1</v>
-      </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="9"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D48" s="4">
-        <v>1</v>
-      </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="9"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D49" s="4">
-        <v>1</v>
-      </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="9"/>
-    </row>
-    <row r="50" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C50" s="5" t="s">
+      <c r="B51" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="2">
-        <v>12</v>
-      </c>
-      <c r="E50" s="2">
-        <v>60</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50" s="8">
-        <f t="shared" si="0"/>
-        <v>720</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="D51" s="2">
         <v>4</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="12">
         <v>60</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" s="18">
+        <v>1</v>
+      </c>
+      <c r="G51" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G51" s="8">
+      <c r="H51" s="14">
+        <f t="shared" ref="H50:H57" si="0">D51*E51</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="2">
+        <v>4</v>
+      </c>
+      <c r="E52" s="12">
+        <v>60</v>
+      </c>
+      <c r="F52" s="18">
+        <v>2</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" s="14">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" s="5" t="s">
+    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D52" s="2">
+      <c r="C53" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" s="2">
         <v>4</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E53" s="12">
         <v>60</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" s="8">
+      <c r="F53" s="18">
+        <v>2</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="14">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C53" s="5" t="s">
+    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D53" s="2">
+      <c r="C54" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" s="2">
+        <v>2</v>
+      </c>
+      <c r="E54" s="12">
+        <v>60</v>
+      </c>
+      <c r="F54" s="18">
+        <v>2</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" s="14">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" s="2">
         <v>4</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E55" s="12">
         <v>60</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G53" s="8">
+      <c r="F55" s="18">
+        <v>2</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H55" s="14">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D54" s="2">
-        <v>2</v>
-      </c>
-      <c r="E54" s="2">
-        <v>60</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" s="8">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D55" s="2">
-        <v>4</v>
-      </c>
-      <c r="E55" s="2">
-        <v>60</v>
-      </c>
-      <c r="F55" s="2" t="s">
+    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G55" s="8">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B56" s="2" t="s">
+      <c r="C56" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="D56" s="2">
         <v>8</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="12">
         <v>60</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F56" s="18">
+        <v>2</v>
+      </c>
+      <c r="G56" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G56" s="8">
+      <c r="H56" s="14">
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="D57" s="2">
         <v>8</v>
       </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="8"/>
-    </row>
-    <row r="58" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E57" s="12">
+        <v>60</v>
+      </c>
+      <c r="F57" s="18">
+        <v>3</v>
+      </c>
+      <c r="G57" s="16"/>
+      <c r="H57" s="14">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="D58" s="2">
         <v>4</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="12">
         <v>60</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F58" s="18">
+        <v>3</v>
+      </c>
+      <c r="G58" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G58" s="8">
-        <f t="shared" si="0"/>
+      <c r="H58" s="14">
+        <f>D58*E58</f>
         <v>240</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B59" s="4"/>
       <c r="C59" s="6"/>
       <c r="D59" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59" s="12"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B60" s="4"/>
       <c r="C60" s="6"/>
-      <c r="D60" s="4">
-        <f>SUM(D2:D58)</f>
-        <v>212</v>
-      </c>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="9">
-        <f>SUM(G2:G58)</f>
-        <v>8520</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="C62" s="12" t="s">
+      <c r="D60" s="19">
+        <f>SUM(D3+D14+D15+D16+D17+D28+D29+D30+D31+D38+D39+D40+D51+D52+D53+D54+D55+D56+D57+D58+D2)</f>
+        <v>138</v>
+      </c>
+      <c r="E60" s="13"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="15">
+        <f>SUM(H2+H3+H14+H15+H16+H17+H28+H29+H30+H31+H38+H39+H40+H51+H52+H54+H53+H55+H56+H58+H57)</f>
+        <v>8280</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D61" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G61" s="3"/>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="1:8" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="C62" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62" s="11">
+        <f>D60/8</f>
+        <v>17.25</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="H62" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G62" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F63" s="10">
-        <f>G60*30%</f>
-        <v>2556</v>
-      </c>
-      <c r="G63" s="10">
-        <f>G60-F63</f>
-        <v>5964</v>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G63" s="8">
+        <f>H60*30%</f>
+        <v>2484</v>
+      </c>
+      <c r="H63" s="8">
+        <f>H60-G63</f>
+        <v>5796</v>
       </c>
     </row>
   </sheetData>
